--- a/docs/Structure & Workflow.xlsx
+++ b/docs/Structure & Workflow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\rq_prototype\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8EF72BC-B2D9-45FA-A958-34C33DBF2C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63811B53-8657-463B-9D3E-F9A36A380294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2625" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="542" xr2:uid="{0E970374-2C5E-4DFE-9D8A-B2D405371D95}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="542" xr2:uid="{0E970374-2C5E-4DFE-9D8A-B2D405371D95}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -740,7 +740,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
